--- a/testcase/edit_phong_tro.xlsx
+++ b/testcase/edit_phong_tro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Python\SeleniumWebDriver\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10350" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Vui lòng nhập đúng định dạng</t>
   </si>
   <si>
-    <t>Vui lòng nhập  đủ thông tin được đánh dấu *</t>
-  </si>
-  <si>
     <t>Phòng 01</t>
   </si>
   <si>
@@ -89,7 +86,10 @@
     <t>Phòng D</t>
   </si>
   <si>
-    <t>Sửa thất bại. Kiểm tra lại</t>
+    <t>Vui lòng nhập đủ thông tin được đánh dấu *</t>
+  </si>
+  <si>
+    <t>Sửa thất bại.Kiểm tra lại</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -572,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>-1</v>
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>-1</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4">
         <v>-1</v>
@@ -679,7 +679,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>-1</v>
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>-1</v>
@@ -721,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
         <v>-1</v>
@@ -740,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
@@ -772,7 +772,7 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
@@ -812,7 +812,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -839,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -856,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -865,13 +865,13 @@
         <v>60000</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4">
         <v>2</v>
@@ -888,11 +888,11 @@
         <v>60000</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
@@ -909,10 +909,10 @@
         <v>-12000</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -923,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
@@ -932,7 +932,7 @@
         <v>-12000</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
@@ -944,20 +944,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -965,18 +965,18 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4">
         <v>-3</v>
@@ -993,10 +993,10 @@
         <v>123400</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1007,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4">
         <v>-3</v>
@@ -1016,7 +1016,7 @@
         <v>123400</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="2" t="s">
@@ -1028,7 +1028,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4">
         <f>C301-3</f>
@@ -1038,10 +1038,10 @@
         <v>-1235</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
@@ -1052,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4">
         <f>C302-3</f>
@@ -1062,7 +1062,7 @@
         <v>-1235</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="2" t="s">
@@ -1074,7 +1074,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4">
         <f>C303-3</f>
@@ -1082,13 +1082,13 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="4">
         <f>C304-3</f>
@@ -1104,11 +1104,11 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1116,20 +1116,20 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4">
         <v>18000</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,18 +1137,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4">
         <v>18000</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,20 +1156,20 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
         <v>-15</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,18 +1177,18 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4">
         <v>-15</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,18 +1196,18 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,16 +1215,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,13 +1239,13 @@
         <v>60000</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1260,11 +1260,11 @@
         <v>60000</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,13 +1279,13 @@
         <v>-6000</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,11 +1300,11 @@
         <v>-6000</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>21</v>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="2" t="s">
@@ -1355,13 +1355,13 @@
         <v>400000</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,11 +1376,11 @@
         <v>400000</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,13 +1395,13 @@
         <v>-5000</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1416,11 +1416,11 @@
         <v>-5000</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1433,10 +1433,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>21</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="2" t="s">
@@ -1469,13 +1469,13 @@
         <v>90000</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,11 +1488,11 @@
         <v>90000</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,13 +1505,13 @@
         <v>-1200000</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1524,11 +1524,11 @@
         <v>-1200000</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,13 +1539,13 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1556,11 +1556,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
